--- a/Day17/apple_total.xlsx
+++ b/Day17/apple_total.xlsx
@@ -2173,16 +2173,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>190.4950005</v>
+        <v>190.3914295714286</v>
       </c>
       <c r="C92" t="n">
-        <v>191.1580003333333</v>
+        <v>190.9625716571429</v>
       </c>
       <c r="D92" t="n">
-        <v>186.492916475</v>
+        <v>186.7062140428572</v>
       </c>
       <c r="E92" t="n">
-        <v>187.3891668690476</v>
+        <v>187.3373814047619</v>
       </c>
     </row>
   </sheetData>
